--- a/Data_frame/balancos_definitivos/MEAL3.xlsx
+++ b/Data_frame/balancos_definitivos/MEAL3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ80"/>
+  <dimension ref="A1:AT80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -649,6 +649,21 @@
           <t>30/09/2023</t>
         </is>
       </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>31/12/2023</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>31/03/2024</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>30/06/2024</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -782,6 +797,15 @@
       <c r="AQ2" t="n">
         <v>2757444.096</v>
       </c>
+      <c r="AR2" t="n">
+        <v>2740000</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>2658522.112</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>2680698.112</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -915,6 +939,15 @@
       <c r="AQ3" t="n">
         <v>479312</v>
       </c>
+      <c r="AR3" t="n">
+        <v>504263.008</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>484182.016</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>473985.984</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1048,6 +1081,15 @@
       <c r="AQ4" t="n">
         <v>186916</v>
       </c>
+      <c r="AR4" t="n">
+        <v>229159.008</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>198348</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>176167.008</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1181,6 +1223,15 @@
       <c r="AQ5" t="n">
         <v>23</v>
       </c>
+      <c r="AR5" t="n">
+        <v>4950</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>5109</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>12720</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1314,6 +1365,15 @@
       <c r="AQ6" t="n">
         <v>95288</v>
       </c>
+      <c r="AR6" t="n">
+        <v>107685</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>102956</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>106271</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1447,6 +1507,15 @@
       <c r="AQ7" t="n">
         <v>50178</v>
       </c>
+      <c r="AR7" t="n">
+        <v>52765</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>50902</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>53246</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1580,6 +1649,15 @@
       <c r="AQ8" t="n">
         <v>0</v>
       </c>
+      <c r="AR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1713,6 +1791,15 @@
       <c r="AQ9" t="n">
         <v>71612</v>
       </c>
+      <c r="AR9" t="n">
+        <v>63217</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>69798</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>62213</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1846,6 +1933,15 @@
       <c r="AQ10" t="n">
         <v>25842</v>
       </c>
+      <c r="AR10" t="n">
+        <v>9217</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>14993</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>19086</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1979,6 +2075,15 @@
       <c r="AQ11" t="n">
         <v>49453</v>
       </c>
+      <c r="AR11" t="n">
+        <v>37270</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>42076</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>44283</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2112,6 +2217,15 @@
       <c r="AQ12" t="n">
         <v>164063.008</v>
       </c>
+      <c r="AR12" t="n">
+        <v>135974</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>139016.992</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>127020</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2245,6 +2359,15 @@
       <c r="AQ13" t="n">
         <v>11719</v>
       </c>
+      <c r="AR13" t="n">
+        <v>6760</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>6906</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2378,6 +2501,15 @@
       <c r="AQ14" t="n">
         <v>0</v>
       </c>
+      <c r="AR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2511,6 +2643,15 @@
       <c r="AQ15" t="n">
         <v>0</v>
       </c>
+      <c r="AR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2644,6 +2785,15 @@
       <c r="AQ16" t="n">
         <v>0</v>
       </c>
+      <c r="AR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2777,6 +2927,15 @@
       <c r="AQ17" t="n">
         <v>0</v>
       </c>
+      <c r="AR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2910,6 +3069,15 @@
       <c r="AQ18" t="n">
         <v>0</v>
       </c>
+      <c r="AR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3043,6 +3211,15 @@
       <c r="AQ19" t="n">
         <v>78662</v>
       </c>
+      <c r="AR19" t="n">
+        <v>49827</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>59151</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>66029</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3176,6 +3353,15 @@
       <c r="AQ20" t="n">
         <v>0</v>
       </c>
+      <c r="AR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3309,6 +3495,15 @@
       <c r="AQ21" t="n">
         <v>11575</v>
       </c>
+      <c r="AR21" t="n">
+        <v>12026</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>12458</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>10076</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3442,6 +3637,15 @@
       <c r="AQ22" t="n">
         <v>28871</v>
       </c>
+      <c r="AR22" t="n">
+        <v>26585</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>28556</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>30404</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3575,6 +3779,15 @@
       <c r="AQ23" t="n">
         <v>1103990.016</v>
       </c>
+      <c r="AR23" t="n">
+        <v>1120606.976</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>1096816</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>1120947.968</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3708,6 +3921,15 @@
       <c r="AQ24" t="n">
         <v>981208</v>
       </c>
+      <c r="AR24" t="n">
+        <v>952571.008</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>909950.976</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>928339.968</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3841,6 +4063,15 @@
       <c r="AQ25" t="n">
         <v>0</v>
       </c>
+      <c r="AR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3974,6 +4205,15 @@
       <c r="AQ26" t="n">
         <v>2757444.096</v>
       </c>
+      <c r="AR26" t="n">
+        <v>2740000</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>2658522.112</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>2680698.112</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4107,6 +4347,15 @@
       <c r="AQ27" t="n">
         <v>570478.0159999999</v>
       </c>
+      <c r="AR27" t="n">
+        <v>547024</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>466372.992</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>480745.984</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4240,6 +4489,15 @@
       <c r="AQ28" t="n">
         <v>84108</v>
       </c>
+      <c r="AR28" t="n">
+        <v>83987</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>80571</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>65939</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4373,6 +4631,15 @@
       <c r="AQ29" t="n">
         <v>151128</v>
       </c>
+      <c r="AR29" t="n">
+        <v>239268</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>167128</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>175240</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4506,6 +4773,15 @@
       <c r="AQ30" t="n">
         <v>20454</v>
       </c>
+      <c r="AR30" t="n">
+        <v>12546</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>4695</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>7787</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4639,6 +4915,15 @@
       <c r="AQ31" t="n">
         <v>165842</v>
       </c>
+      <c r="AR31" t="n">
+        <v>76883</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>76656</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>72432</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4772,6 +5057,15 @@
       <c r="AQ32" t="n">
         <v>0</v>
       </c>
+      <c r="AR32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4905,6 +5199,15 @@
       <c r="AQ33" t="n">
         <v>0</v>
       </c>
+      <c r="AR33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -5038,6 +5341,15 @@
       <c r="AQ34" t="n">
         <v>135472</v>
       </c>
+      <c r="AR34" t="n">
+        <v>134340</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>137323.008</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>159348</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -5171,6 +5483,15 @@
       <c r="AQ35" t="n">
         <v>0</v>
       </c>
+      <c r="AR35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -5304,6 +5625,15 @@
       <c r="AQ36" t="n">
         <v>13474</v>
       </c>
+      <c r="AR36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -5437,6 +5767,15 @@
       <c r="AQ37" t="n">
         <v>1074710.016</v>
       </c>
+      <c r="AR37" t="n">
+        <v>1170125.056</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>1185984</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>1143042.048</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -5570,6 +5909,15 @@
       <c r="AQ38" t="n">
         <v>338131.008</v>
       </c>
+      <c r="AR38" t="n">
+        <v>452867.008</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>453375.008</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>454108</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5703,6 +6051,15 @@
       <c r="AQ39" t="n">
         <v>0</v>
       </c>
+      <c r="AR39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5836,6 +6193,15 @@
       <c r="AQ40" t="n">
         <v>594931.008</v>
       </c>
+      <c r="AR40" t="n">
+        <v>578432</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>564283.008</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>581828.992</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5969,6 +6335,15 @@
       <c r="AQ41" t="n">
         <v>30934</v>
       </c>
+      <c r="AR41" t="n">
+        <v>40107</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>40229</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>43343</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -6102,6 +6477,15 @@
       <c r="AQ42" t="n">
         <v>0</v>
       </c>
+      <c r="AR42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -6235,6 +6619,15 @@
       <c r="AQ43" t="n">
         <v>106197</v>
       </c>
+      <c r="AR43" t="n">
+        <v>94662</v>
+      </c>
+      <c r="AS43" t="n">
+        <v>117241</v>
+      </c>
+      <c r="AT43" t="n">
+        <v>53372</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -6368,6 +6761,15 @@
       <c r="AQ44" t="n">
         <v>0</v>
       </c>
+      <c r="AR44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -6501,6 +6903,15 @@
       <c r="AQ45" t="n">
         <v>4517</v>
       </c>
+      <c r="AR45" t="n">
+        <v>4057</v>
+      </c>
+      <c r="AS45" t="n">
+        <v>10856</v>
+      </c>
+      <c r="AT45" t="n">
+        <v>10390</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -6634,6 +7045,15 @@
       <c r="AQ46" t="n">
         <v>0</v>
       </c>
+      <c r="AR46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -6767,6 +7187,15 @@
       <c r="AQ47" t="n">
         <v>1112256</v>
       </c>
+      <c r="AR47" t="n">
+        <v>1022851.008</v>
+      </c>
+      <c r="AS47" t="n">
+        <v>1006164.992</v>
+      </c>
+      <c r="AT47" t="n">
+        <v>1056910.016</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -6900,6 +7329,15 @@
       <c r="AQ48" t="n">
         <v>1154461.952</v>
       </c>
+      <c r="AR48" t="n">
+        <v>1154461.952</v>
+      </c>
+      <c r="AS48" t="n">
+        <v>1154461.952</v>
+      </c>
+      <c r="AT48" t="n">
+        <v>1154461.952</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -7033,6 +7471,15 @@
       <c r="AQ49" t="n">
         <v>390136.992</v>
       </c>
+      <c r="AR49" t="n">
+        <v>390692.992</v>
+      </c>
+      <c r="AS49" t="n">
+        <v>391755.008</v>
+      </c>
+      <c r="AT49" t="n">
+        <v>392807.008</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -7166,6 +7613,15 @@
       <c r="AQ50" t="n">
         <v>0</v>
       </c>
+      <c r="AR50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -7299,6 +7755,15 @@
       <c r="AQ51" t="n">
         <v>-5551</v>
       </c>
+      <c r="AR51" t="n">
+        <v>-5551</v>
+      </c>
+      <c r="AS51" t="n">
+        <v>-5551</v>
+      </c>
+      <c r="AT51" t="n">
+        <v>-5551</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -7432,6 +7897,15 @@
       <c r="AQ52" t="n">
         <v>-494176.992</v>
       </c>
+      <c r="AR52" t="n">
+        <v>-570382.976</v>
+      </c>
+      <c r="AS52" t="n">
+        <v>-598262.0159999999</v>
+      </c>
+      <c r="AT52" t="n">
+        <v>-586064</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -7565,6 +8039,15 @@
       <c r="AQ53" t="n">
         <v>0</v>
       </c>
+      <c r="AR53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -7698,6 +8181,15 @@
       <c r="AQ54" t="n">
         <v>0</v>
       </c>
+      <c r="AR54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -7831,6 +8323,15 @@
       <c r="AQ55" t="n">
         <v>67385</v>
       </c>
+      <c r="AR55" t="n">
+        <v>53630</v>
+      </c>
+      <c r="AS55" t="n">
+        <v>63761</v>
+      </c>
+      <c r="AT55" t="n">
+        <v>101256</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -7962,6 +8463,15 @@
         <v>0</v>
       </c>
       <c r="AQ56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8013,6 +8523,9 @@
       <c r="AO57" t="inlineStr"/>
       <c r="AP57" t="inlineStr"/>
       <c r="AQ57" t="inlineStr"/>
+      <c r="AR57" t="inlineStr"/>
+      <c r="AS57" t="inlineStr"/>
+      <c r="AT57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -8062,6 +8575,9 @@
       <c r="AO58" t="inlineStr"/>
       <c r="AP58" t="inlineStr"/>
       <c r="AQ58" t="inlineStr"/>
+      <c r="AR58" t="inlineStr"/>
+      <c r="AS58" t="inlineStr"/>
+      <c r="AT58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -8189,6 +8705,15 @@
       <c r="AQ59" t="n">
         <v>626033.9840000001</v>
       </c>
+      <c r="AR59" t="n">
+        <v>464497.952</v>
+      </c>
+      <c r="AS59" t="n">
+        <v>506699.008</v>
+      </c>
+      <c r="AT59" t="n">
+        <v>570499.968</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -8316,6 +8841,15 @@
       <c r="AQ60" t="n">
         <v>-385611.008</v>
       </c>
+      <c r="AR60" t="n">
+        <v>-300097.952</v>
+      </c>
+      <c r="AS60" t="n">
+        <v>-361771.008</v>
+      </c>
+      <c r="AT60" t="n">
+        <v>-379865.984</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -8443,6 +8977,15 @@
       <c r="AQ61" t="n">
         <v>240423.008</v>
       </c>
+      <c r="AR61" t="n">
+        <v>164400</v>
+      </c>
+      <c r="AS61" t="n">
+        <v>144928</v>
+      </c>
+      <c r="AT61" t="n">
+        <v>190634</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -8570,6 +9113,15 @@
       <c r="AQ62" t="n">
         <v>-155830</v>
       </c>
+      <c r="AR62" t="n">
+        <v>-175679.008</v>
+      </c>
+      <c r="AS62" t="n">
+        <v>-142230</v>
+      </c>
+      <c r="AT62" t="n">
+        <v>-161708.992</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -8697,6 +9249,15 @@
       <c r="AQ63" t="n">
         <v>-63365</v>
       </c>
+      <c r="AR63" t="n">
+        <v>-62576.008</v>
+      </c>
+      <c r="AS63" t="n">
+        <v>-46655</v>
+      </c>
+      <c r="AT63" t="n">
+        <v>-58145</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -8822,6 +9383,15 @@
         <v>0</v>
       </c>
       <c r="AQ64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8951,6 +9521,15 @@
       <c r="AQ65" t="n">
         <v>42317</v>
       </c>
+      <c r="AR65" t="n">
+        <v>132530</v>
+      </c>
+      <c r="AS65" t="n">
+        <v>24943</v>
+      </c>
+      <c r="AT65" t="n">
+        <v>2704</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -9078,6 +9657,15 @@
       <c r="AQ66" t="n">
         <v>0</v>
       </c>
+      <c r="AR66" t="n">
+        <v>-65125</v>
+      </c>
+      <c r="AS66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -9204,6 +9792,15 @@
       </c>
       <c r="AQ67" t="n">
         <v>278</v>
+      </c>
+      <c r="AR67" t="n">
+        <v>622</v>
+      </c>
+      <c r="AS67" t="n">
+        <v>2557</v>
+      </c>
+      <c r="AT67" t="n">
+        <v>60378</v>
       </c>
     </row>
     <row r="68">
@@ -9332,6 +9929,15 @@
       <c r="AQ68" t="n">
         <v>-28545</v>
       </c>
+      <c r="AR68" t="n">
+        <v>-44191</v>
+      </c>
+      <c r="AS68" t="n">
+        <v>-23637</v>
+      </c>
+      <c r="AT68" t="n">
+        <v>-21612</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -9459,6 +10065,15 @@
       <c r="AQ69" t="n">
         <v>0</v>
       </c>
+      <c r="AR69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -9585,6 +10200,15 @@
       </c>
       <c r="AQ70" t="n">
         <v>0</v>
+      </c>
+      <c r="AR70" t="n">
+        <v>25953</v>
+      </c>
+      <c r="AS70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT70" t="n">
+        <v>-21612</v>
       </c>
     </row>
     <row r="71">
@@ -9635,6 +10259,9 @@
       <c r="AO71" t="inlineStr"/>
       <c r="AP71" t="inlineStr"/>
       <c r="AQ71" t="inlineStr"/>
+      <c r="AR71" t="inlineStr"/>
+      <c r="AS71" t="inlineStr"/>
+      <c r="AT71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -9684,6 +10311,9 @@
       <c r="AO72" t="inlineStr"/>
       <c r="AP72" t="inlineStr"/>
       <c r="AQ72" t="inlineStr"/>
+      <c r="AR72" t="inlineStr"/>
+      <c r="AS72" t="inlineStr"/>
+      <c r="AT72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -9733,6 +10363,9 @@
       <c r="AO73" t="inlineStr"/>
       <c r="AP73" t="inlineStr"/>
       <c r="AQ73" t="inlineStr"/>
+      <c r="AR73" t="inlineStr"/>
+      <c r="AS73" t="inlineStr"/>
+      <c r="AT73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -9860,6 +10493,15 @@
       <c r="AQ74" t="n">
         <v>35278</v>
       </c>
+      <c r="AR74" t="n">
+        <v>-50019</v>
+      </c>
+      <c r="AS74" t="n">
+        <v>-40094</v>
+      </c>
+      <c r="AT74" t="n">
+        <v>12250</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -9987,6 +10629,15 @@
       <c r="AQ75" t="n">
         <v>-11585</v>
       </c>
+      <c r="AR75" t="n">
+        <v>13307</v>
+      </c>
+      <c r="AS75" t="n">
+        <v>3116</v>
+      </c>
+      <c r="AT75" t="n">
+        <v>-3445</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -10113,6 +10764,15 @@
       </c>
       <c r="AQ76" t="n">
         <v>137</v>
+      </c>
+      <c r="AR76" t="n">
+        <v>-50229</v>
+      </c>
+      <c r="AS76" t="n">
+        <v>9099</v>
+      </c>
+      <c r="AT76" t="n">
+        <v>3393</v>
       </c>
     </row>
     <row r="77">
@@ -10163,6 +10823,9 @@
       <c r="AO77" t="inlineStr"/>
       <c r="AP77" t="inlineStr"/>
       <c r="AQ77" t="inlineStr"/>
+      <c r="AR77" t="inlineStr"/>
+      <c r="AS77" t="inlineStr"/>
+      <c r="AT77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -10212,6 +10875,9 @@
       <c r="AO78" t="inlineStr"/>
       <c r="AP78" t="inlineStr"/>
       <c r="AQ78" t="inlineStr"/>
+      <c r="AR78" t="inlineStr"/>
+      <c r="AS78" t="inlineStr"/>
+      <c r="AT78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -10337,6 +11003,15 @@
         <v>0</v>
       </c>
       <c r="AQ79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10466,6 +11141,15 @@
       <c r="AQ80" t="n">
         <v>16402</v>
       </c>
+      <c r="AR80" t="n">
+        <v>-76207</v>
+      </c>
+      <c r="AS80" t="n">
+        <v>-27879</v>
+      </c>
+      <c r="AT80" t="n">
+        <v>12198</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
